--- a/src/main/webapp/content/file/ImportEmployee.xlsx
+++ b/src/main/webapp/content/file/ImportEmployee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hung.phungtien\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hung.phungtien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
     <t>Cấp</t>
   </si>
   <si>
-    <t>Phùng Tiến Hưng</t>
+    <t>Địa bàn</t>
   </si>
 </sst>
 </file>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,17 +507,13 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4"/>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>555</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
